--- a/Doc/AO - SPL's/Ticketbeheer.xlsx
+++ b/Doc/AO - SPL's/Ticketbeheer.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BackYardBBQ\Doc\AO - SPL's\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Desktop\BackYardBBQ\Doc\AO - SPL's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9540AE4A-5AD7-4DAB-80AE-89923CDB906B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564FA650-18DB-44AE-AD9B-8DBAC4F34EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1830" windowWidth="21600" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="3" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Datum aanmelding</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Nee</t>
   </si>
   <si>
-    <t>Piet</t>
-  </si>
-  <si>
     <t>Winkelwagentje hoeveelheid</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>Ricardo</t>
   </si>
   <si>
-    <t>Han</t>
-  </si>
-  <si>
     <t>admin pagina alleen voor admins</t>
   </si>
   <si>
@@ -305,6 +299,24 @@
   </si>
   <si>
     <t>Functionaliteiten  omgedraaid zodat het werkt naar de wensen van de klant</t>
+  </si>
+  <si>
+    <t>Peter Nocker</t>
+  </si>
+  <si>
+    <t>n.v.t</t>
+  </si>
+  <si>
+    <t>simpele length functie gebruikt</t>
+  </si>
+  <si>
+    <t>inlog command graag output wat er verkeerd gaat</t>
+  </si>
+  <si>
+    <t>Momenteel komt er een simpele error graag laten zien wat er verkeerd gaat, email all gebruk/ ww al gebrukt dus apart.</t>
+  </si>
+  <si>
+    <t>apart opgevraagd of deze al in de database staan.</t>
   </si>
 </sst>
 </file>
@@ -659,7 +671,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -711,10 +723,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -789,10 +797,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -818,8 +822,8 @@
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
@@ -2076,7 +2080,7 @@
       </c>
       <c r="D5" s="16">
         <f>COUNTIFS(Meldingen!J:J,$B5,Meldingen!F:F,D$2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2172,11 +2176,11 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13:XFD1048576"/>
       <selection pane="topRight" activeCell="A13" sqref="A13:XFD1048576"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD1048576"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="A4:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,8 +2191,8 @@
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="8" max="8" width="86.140625" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" customWidth="1"/>
@@ -2200,27 +2204,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="47"/>
     </row>
     <row r="2" spans="2:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2232,7 +2236,7 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2241,10 +2245,10 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -2264,133 +2268,161 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>44627</v>
+        <v>44748</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="5">
-        <v>44658</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="42">
+        <v>44748</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="43">
-        <v>44626</v>
+      <c r="C4" s="5">
+        <v>44749</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="5">
-        <v>44734</v>
+        <v>44749</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="42">
+        <v>36</v>
+      </c>
+      <c r="N4" s="41">
         <v>0.9</v>
       </c>
-      <c r="O4" s="25"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
+      <c r="B5" s="23">
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>44658</v>
+        <v>44750</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="H5" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="5">
-        <v>44658</v>
+        <v>44750</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="42">
+        <v>38</v>
+      </c>
+      <c r="N5" s="41">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="23">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44751</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="25"/>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="5">
+        <v>44751</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2402,11 +2434,11 @@
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="25"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2418,11 +2450,11 @@
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="25"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="24"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2430,17 +2462,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="25"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2452,11 +2482,11 @@
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="25"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2468,11 +2498,11 @@
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="25"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2484,11 +2514,11 @@
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="25"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2500,11 +2530,11 @@
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="25"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2516,11 +2546,11 @@
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="25"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2532,11 +2562,11 @@
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="25"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2548,11 +2578,11 @@
       <c r="K16" s="4"/>
       <c r="L16" s="5"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="25"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2564,11 +2594,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="25"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2580,11 +2610,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="25"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2596,11 +2626,11 @@
       <c r="K19" s="4"/>
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="25"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="24"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -2612,11 +2642,11 @@
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="25"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="4"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2628,11 +2658,11 @@
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="25"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="24"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -2644,11 +2674,11 @@
       <c r="K22" s="4"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="25"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="4"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2660,11 +2690,11 @@
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="25"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="4"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -2676,11 +2706,11 @@
       <c r="K24" s="4"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="25"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="24"/>
     </row>
     <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -2692,11 +2722,11 @@
       <c r="K25" s="4"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="25"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="24"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -2708,11 +2738,11 @@
       <c r="K26" s="4"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="25"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="24"/>
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="4"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -2724,11 +2754,11 @@
       <c r="K27" s="4"/>
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="25"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="24"/>
     </row>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2740,11 +2770,11 @@
       <c r="K28" s="4"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="25"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="24"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="4"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2756,11 +2786,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="25"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="24"/>
     </row>
     <row r="30" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2772,11 +2802,11 @@
       <c r="K30" s="4"/>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="25"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="24"/>
     </row>
     <row r="31" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2788,11 +2818,11 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="25"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2804,328 +2834,328 @@
       <c r="K32" s="4"/>
       <c r="L32" s="5"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="25"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="24"/>
     </row>
     <row r="33" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="24"/>
     </row>
     <row r="34" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="24"/>
     </row>
     <row r="35" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="24"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="24"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="24"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="24"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="26"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="24"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="24"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="24"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="24"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="24"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="24"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="24"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="24"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="24"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="26"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="24"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="24"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="24"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="24"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="25"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="24"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
@@ -3228,15 +3258,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
@@ -3248,6 +3269,15 @@
     <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3532,14 +3562,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EFF7FEE-B93E-48C9-A0D4-D8125F4B73AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E6B243-8C0D-4FCB-B510-9A3336D76290}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
@@ -3553,6 +3575,14 @@
     <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EFF7FEE-B93E-48C9-A0D4-D8125F4B73AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
